--- a/input_excel/input.xlsx
+++ b/input_excel/input.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB458C1D-9BF5-440C-A46A-5E8325F1D5A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,13 +46,13 @@
     <t>行数</t>
   </si>
   <si>
-    <t>清水笋尖</t>
-  </si>
-  <si>
-    <t>竹笋</t>
-  </si>
-  <si>
-    <t>1kg</t>
+    <t>花椒油</t>
+  </si>
+  <si>
+    <t>150ml</t>
+  </si>
+  <si>
+    <t>花椒，</t>
   </si>
 </sst>
 </file>
@@ -113,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,28 +478,23 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7">
-        <v>43058</v>
+      <c r="D2" s="4">
+        <v>43179</v>
       </c>
       <c r="E2" s="7">
-        <v>43362</v>
-      </c>
-      <c r="F2" t="s">
+        <v>43727</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="C3" s="6"/>
-      <c r="F3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
